--- a/Plan/기획 자료.xlsx
+++ b/Plan/기획 자료.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김동민\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김효빈\Documents\카카오톡 받은 파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA1528AE-8817-47FC-8727-FAC5C31D9FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65924A12-DBDC-4F38-93D5-0F7DD7F1D87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{6F8847D6-A7BA-4656-B9CD-EB7B43AD077E}"/>
+    <workbookView xWindow="1005" yWindow="870" windowWidth="22635" windowHeight="13800" xr2:uid="{6F8847D6-A7BA-4656-B9CD-EB7B43AD077E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t>유닛 스텟</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,162 @@
   </si>
   <si>
     <t>거리/초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거북이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아르마딜로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다람쥐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고양이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비둘기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨셉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대포 껍질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등껍질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방패,칼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암살자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>둔기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> A 피해량 공식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> B 피해량 공식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B 방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~7사이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초 무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범워</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,12 +335,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -193,9 +364,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,22 +694,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0721D659-F1C1-4DEC-9258-212E66A39541}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.296875" customWidth="1"/>
-    <col min="2" max="2" width="17.69921875" customWidth="1"/>
-    <col min="4" max="4" width="18.09765625" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" customWidth="1"/>
-    <col min="6" max="7" width="13.19921875" customWidth="1"/>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="7" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="9.75" customWidth="1"/>
+    <col min="11" max="11" width="11.125" customWidth="1"/>
+    <col min="16" max="16" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,8 +728,33 @@
       <c r="G1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -562,8 +773,35 @@
       <c r="G2">
         <v>3000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -579,8 +817,35 @@
       <c r="G3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -596,8 +861,35 @@
       <c r="G4">
         <v>2000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4">
+        <v>500</v>
+      </c>
+      <c r="K4">
+        <v>400</v>
+      </c>
+      <c r="L4">
+        <v>200</v>
+      </c>
+      <c r="M4">
+        <v>130</v>
+      </c>
+      <c r="N4">
+        <v>150</v>
+      </c>
+      <c r="O4">
+        <v>250</v>
+      </c>
+      <c r="P4">
+        <v>300</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -613,8 +905,35 @@
       <c r="G5">
         <v>700</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5">
+        <v>120</v>
+      </c>
+      <c r="K5">
+        <v>110</v>
+      </c>
+      <c r="L5">
+        <v>60</v>
+      </c>
+      <c r="M5">
+        <v>70</v>
+      </c>
+      <c r="N5">
+        <v>70</v>
+      </c>
+      <c r="O5">
+        <v>120</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -630,8 +949,35 @@
       <c r="G6">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6">
+        <v>0.3</v>
+      </c>
+      <c r="K6">
+        <v>0.4</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.5</v>
+      </c>
+      <c r="N6">
+        <v>1.2</v>
+      </c>
+      <c r="O6">
+        <v>0.5</v>
+      </c>
+      <c r="P6">
+        <v>0.5</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -650,8 +996,43 @@
       <c r="G7">
         <v>160</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:K7" si="0" xml:space="preserve"> (J5)  * (J6)</f>
+        <v>36</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="L7">
+        <f xml:space="preserve"> (L5)  * (L6)</f>
+        <v>60</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:Q7" si="1" xml:space="preserve"> (M5)  * (M6)</f>
+        <v>105</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -670,8 +1051,35 @@
       <c r="G8">
         <v>120</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.7</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>1.2</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -690,8 +1098,64 @@
       <c r="G9">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9">
+        <v>50</v>
+      </c>
+      <c r="K9">
+        <v>40</v>
+      </c>
+      <c r="L9">
+        <v>20</v>
+      </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>30</v>
+      </c>
+      <c r="P9">
+        <v>15</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>1.5</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -701,13 +1165,106 @@
       <c r="E11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11">
+        <v>80</v>
+      </c>
+      <c r="K11">
+        <v>70</v>
+      </c>
+      <c r="L11">
+        <v>30</v>
+      </c>
+      <c r="M11">
+        <v>40</v>
+      </c>
+      <c r="N11">
+        <v>45</v>
+      </c>
+      <c r="O11">
+        <v>50</v>
+      </c>
+      <c r="P11">
+        <v>60</v>
+      </c>
+      <c r="Q11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
+      <c r="P12" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J18" s="4">
+        <v>44</v>
+      </c>
+      <c r="K18" s="4">
+        <v>50</v>
+      </c>
+      <c r="L18" s="3">
+        <f xml:space="preserve"> (J18) * 1 / (1 + (K18) * 0.01)</f>
+        <v>29.333333333333332</v>
+      </c>
+      <c r="M18" s="4">
+        <v>36</v>
+      </c>
+      <c r="N18" s="4">
+        <v>40</v>
+      </c>
+      <c r="O18" s="3">
+        <f xml:space="preserve"> (M18) * 1 / (1 + (N18) * 0.01)</f>
+        <v>25.714285714285715</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
